--- a/pred_ohlcv/54_21/2020-01-23 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BTC ohlcv.xlsx
@@ -5696,7 +5696,7 @@
         <v>-19.34690426</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-18.05380426</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-23.63320426</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-6.058904260000002</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-7.616490180000002</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4.139990180000002</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-4.585690180000002</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-3.583290180000002</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-5.060790180000002</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4.960190180000002</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4.470390180000003</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5.136209819999998</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>31.43983293</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>82.86925928000001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>82.70545928000001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>81.26505928000002</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>81.06055928000002</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>79.91275928000002</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>80.92255928000002</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>80.65625928000001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>81.32115928000002</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>82.95295928000002</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>81.17885928000001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>81.53075928000001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>81.11675847000001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>81.83675847000001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>79.45295847000001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>79.45295847000001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>78.57425847000002</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>75.67005847000001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>75.67005847000001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>241.6696637000001</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>247.6111892100001</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>240.9236206400001</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>247.2543894200001</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>227.4263723800001</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>231.6780723600002</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>222.8836037900002</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>208.1217037600002</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>201.8161107000002</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>183.3329924400002</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>162.8014796700002</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-78.22760982999986</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-82.58850982999986</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-77.62927476999987</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-74.59097476999986</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-75.85837476999986</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-70.81717173999985</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-67.84767173999985</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-67.84767173999985</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-65.03987173999985</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-69.04817173999986</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-67.16797173999986</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-67.16797173999986</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-67.16797173999986</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-71.40527173999986</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-70.23066886999986</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-62.64807173999986</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-57.48735540999986</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BTC ohlcv.xlsx
@@ -5592,7 +5592,7 @@
         <v>-6.004904260000002</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-19.34690426</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-18.05380426</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-23.63320426</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-6.058904260000002</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-7.616490180000002</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4.139990180000002</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-4.585690180000002</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-5.060790180000002</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4.960190180000002</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4.470390180000003</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5.136209819999998</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>31.43983293</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>82.86925928000001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>82.70545928000001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>81.26505928000002</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>81.06055928000002</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>79.91275928000002</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>80.92255928000002</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>80.65625928000001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>81.32115928000002</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>82.95295928000002</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>81.17885928000001</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>81.53075928000001</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>81.11675847000001</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>81.83675847000001</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>79.45295847000001</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>79.45295847000001</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>78.57425847000002</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>75.67005847000001</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>75.67005847000001</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>226.1448013900001</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>241.6696637000001</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>247.6111892100001</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>240.9236206400001</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>247.2543894200001</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>227.4263723800001</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>231.6780723600002</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>222.8836037900002</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>208.1217037600002</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>201.8161107000002</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>183.3329924400002</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>162.8014796700002</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>181.5118463200002</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>182.0291463200002</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>183.4090450300002</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>182.0358213000002</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>179.8672506900002</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>179.8672506900002</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>181.3438506900002</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>179.7638143500002</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>184.2466110600002</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>184.1479110600002</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-78.22760982999986</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-82.58850982999986</v>
       </c>
       <c r="H1276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-77.62927476999987</v>
       </c>
       <c r="H1277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-74.59097476999986</v>
       </c>
       <c r="H1278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-75.85837476999986</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-73.64037173999985</v>
       </c>
       <c r="H1282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-57.48735540999986</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-53.34323006999986</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-57.18303006999986</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-58.29583006999986</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-57.37243006999986</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-57.94305474999986</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-54.58595043999986</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-53.32417942999987</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-53.66757942999987</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-53.20537942999987</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-51.60890697999987</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-50.99027765999987</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-51.58137765999987</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-50.51907765999987</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-50.51907765999987</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-50.51907765999987</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-50.51907765999987</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-50.51907765999987</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-49.57277311999987</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-50.57526859999987</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-49.80306407999986</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-49.96326407999987</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-48.15576407999987</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-47.91036407999987</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
